--- a/Monthly_report.xlsx
+++ b/Monthly_report.xlsx
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
-  <si>
-    <t>Road Name: Banar Bhopalgarh Kuchera (SH 63)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+  <si>
+    <t>Road Name: Khood DataramgarhRenwal (SH 8 A)</t>
   </si>
   <si>
     <t>SN</t>
@@ -76,6 +76,132 @@
     <t>Date of completion (Date issue of provisional comp. certificate)</t>
   </si>
   <si>
+    <t>WB/ RSHDP II/ANNUITY 04</t>
+  </si>
+  <si>
+    <t>Ramseen Bhinmal Raniwara Road (SH 31)</t>
+  </si>
+  <si>
+    <t>2022-09-29</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>WB/ RSHDP II/ANNUITY 03</t>
+  </si>
+  <si>
+    <t>KishangarhArainMalpura (SH 07E &amp; 101)</t>
+  </si>
+  <si>
+    <t>2023-12-27</t>
+  </si>
+  <si>
+    <t>WB/ RSHDP II/ANNUITY 02</t>
+  </si>
+  <si>
+    <t>Jhunjhunu Rajgarh (SH 41)</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>NeemkathanaKhetriSinghana (SH 13)</t>
+  </si>
+  <si>
+    <t>WB/ RSHDP II/ANNUITY 01</t>
+  </si>
+  <si>
+    <t>Sri Ganganagar  Bikaner (Padampur Raisinghnagar &amp; Sattasar Bikaner Section) (SH 03)</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>WB/RSHDP-II/EPC/06</t>
+  </si>
+  <si>
+    <t>Sayla Bagoda Guda Malani SH16B</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>WB/RSHDP-II/EPC/05</t>
+  </si>
+  <si>
+    <t>Bikaner Napasar Jasrasar SH20B</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>03-09-2024</t>
+  </si>
+  <si>
+    <t>WB/RSHDP-II/EPC/04</t>
+  </si>
+  <si>
+    <t>Khood DataramgarhRenwal (SH 8 A)</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>16-08-2024</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>ManglanaMakranaBorawad (SH 2B) including MakranaBidiyadParbatsar SH2D</t>
+  </si>
+  <si>
+    <t>HurdaBanera (SH 39 A)</t>
+  </si>
+  <si>
+    <t>WB/RSHDP-II/EPC/03</t>
+  </si>
+  <si>
+    <t>Jodhpur  Marwar Junction Jojawar (SH 61 &amp; 61A)</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>04-05-2022</t>
+  </si>
+  <si>
+    <t>WB/RSHDP-II/EPC/02</t>
+  </si>
+  <si>
+    <t>BhaviPiparKhimsar (SH 86 C)</t>
+  </si>
+  <si>
+    <t>2018-06-20</t>
+  </si>
+  <si>
+    <t>2019-09-22</t>
+  </si>
+  <si>
     <t>WB/RSHDP-II/EPC/01</t>
   </si>
   <si>
@@ -88,6 +214,51 @@
     <t>2019-09-03</t>
   </si>
   <si>
+    <t>RSHDP-II/WB-Tr-2/EPC-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathania  Tinwari  Dechu (SH61B) &amp;Jodhpur Tinwari (SH95) </t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>14-10-2024</t>
+  </si>
+  <si>
+    <t>RSHDP-II/WB-Tr-2/EPC-02</t>
+  </si>
+  <si>
+    <t>Rajgarh  Bhadra (SH106)</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>RSHDP-II/WB-Tr-2/EPC-03</t>
+  </si>
+  <si>
+    <t>Natni Ka Bara  Malakhera  Maujpur (SH44)</t>
+  </si>
+  <si>
+    <t>RHMP/WB/EPC-04</t>
+  </si>
+  <si>
+    <t>Sathin Gotan</t>
+  </si>
+  <si>
+    <t>RHMP/HAM/01</t>
+  </si>
+  <si>
+    <t>mal bamohari</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
@@ -115,66 +286,54 @@
     <t>Not Started (Till Date)</t>
   </si>
   <si>
-    <t>5th km stone</t>
+    <t>Culvert</t>
+  </si>
+  <si>
+    <t>Major Junction</t>
+  </si>
+  <si>
+    <t>Minor Junction</t>
+  </si>
+  <si>
+    <t>Toll plaza</t>
   </si>
   <si>
     <t>Bus shelter including Solar Light</t>
   </si>
   <si>
-    <t>Conduit chamber</t>
-  </si>
-  <si>
-    <t>Culvert</t>
-  </si>
-  <si>
-    <t>Hecto meter stone</t>
-  </si>
-  <si>
-    <t>km stone</t>
-  </si>
-  <si>
-    <t>Major Junction</t>
-  </si>
-  <si>
     <t>Minor Bridge</t>
   </si>
   <si>
-    <t>Minor Junction</t>
-  </si>
-  <si>
-    <t>Pipe culvert</t>
-  </si>
-  <si>
-    <t>Rain water harvesting</t>
-  </si>
-  <si>
-    <t>Road Boundary stone</t>
-  </si>
-  <si>
-    <t>Road sign</t>
-  </si>
-  <si>
-    <t>safety and traffic management during construction</t>
-  </si>
-  <si>
-    <t>Toll plaza</t>
-  </si>
-  <si>
-    <t>Toll Plaza (COS)</t>
-  </si>
-  <si>
-    <t>Utility Services</t>
-  </si>
-  <si>
-    <t>Road side plantation</t>
-  </si>
-  <si>
-    <t>Culvert COS</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
+    <t>Reconstruction</t>
+  </si>
+  <si>
+    <t>Sub grade</t>
+  </si>
+  <si>
+    <t>PQC</t>
+  </si>
+  <si>
+    <t>DLC</t>
+  </si>
+  <si>
+    <t>Widening</t>
+  </si>
+  <si>
+    <t>GSB</t>
+  </si>
+  <si>
+    <t>Base /WMM</t>
+  </si>
+  <si>
+    <t>DBM</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
     <t>Items</t>
   </si>
   <si>
@@ -193,39 +352,12 @@
     <t>Progress achieved (%)</t>
   </si>
   <si>
-    <t>(other items)</t>
-  </si>
-  <si>
-    <t>Minor Bridge/Underpass/overpass</t>
-  </si>
-  <si>
-    <t>Minor Bridges/Underpass/Overpass</t>
-  </si>
-  <si>
-    <t>other item</t>
-  </si>
-  <si>
-    <t>other items</t>
-  </si>
-  <si>
-    <t>Other Work 4 (b) other items</t>
-  </si>
-  <si>
-    <t>Other Work 4( a) Project Facility</t>
-  </si>
-  <si>
-    <t>Other Work Other Item 4(b)</t>
+    <t>Road works, including culverts,widening and repair of culverts</t>
   </si>
   <si>
     <t>Other Works</t>
   </si>
   <si>
-    <t>Other Works 4 (b) Other item</t>
-  </si>
-  <si>
-    <t>Others items</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -244,45 +376,6 @@
     <t>Financial Progress (%)</t>
   </si>
   <si>
-    <t>WB/ RSHDP II/ANNUITY 01</t>
-  </si>
-  <si>
-    <t>WB/ RSHDP II/ANNUITY 02</t>
-  </si>
-  <si>
-    <t>WB/ RSHDP II/ANNUITY 03</t>
-  </si>
-  <si>
-    <t>WB/ RSHDP II/ANNUITY 04</t>
-  </si>
-  <si>
-    <t>WB/RSHDP-II/EPC/02</t>
-  </si>
-  <si>
-    <t>WB/RSHDP-II/EPC/03</t>
-  </si>
-  <si>
-    <t>WB/RSHDP-II/EPC/04</t>
-  </si>
-  <si>
-    <t>WB/RSHDP-II/EPC/05</t>
-  </si>
-  <si>
-    <t>WB/RSHDP-II/EPC/06</t>
-  </si>
-  <si>
-    <t>Blackspot</t>
-  </si>
-  <si>
-    <t>RSHDP-II/WB-Tr-2/EPC-01</t>
-  </si>
-  <si>
-    <t>RSHDP-II/WB-Tr-2/EPC-02</t>
-  </si>
-  <si>
-    <t>RSHDP-II/WB-Tr-2/EPC-03</t>
-  </si>
-  <si>
     <t>Road</t>
   </si>
   <si>
@@ -406,9 +499,6 @@
     <t>31-10-2021</t>
   </si>
   <si>
-    <t>04-05-2022</t>
-  </si>
-  <si>
     <t>00-00-2021</t>
   </si>
   <si>
@@ -427,21 +517,15 @@
     <t>27-11-2023</t>
   </si>
   <si>
-    <t>16-08-2024</t>
-  </si>
-  <si>
     <t>16-07-2023</t>
   </si>
   <si>
-    <t>00-00-2023</t>
+    <t>03-12-2023</t>
   </si>
   <si>
     <t>16-04-2024</t>
   </si>
   <si>
-    <t>03-09-2024</t>
-  </si>
-  <si>
     <t>31-07-2023</t>
   </si>
   <si>
@@ -451,6 +535,9 @@
     <t>20-03-2024</t>
   </si>
   <si>
+    <t>02-08-2024</t>
+  </si>
+  <si>
     <t>15-07-2023</t>
   </si>
   <si>
@@ -526,9 +613,6 @@
     <t>30-01-2024</t>
   </si>
   <si>
-    <t>02-08-2024</t>
-  </si>
-  <si>
     <t>26-08-2023</t>
   </si>
   <si>
@@ -538,9 +622,6 @@
     <t>27-05-2024</t>
   </si>
   <si>
-    <t>14-10-2024</t>
-  </si>
-  <si>
     <t>05-11-2023</t>
   </si>
   <si>
@@ -551,6 +632,27 @@
   </si>
   <si>
     <t>10-10-2024</t>
+  </si>
+  <si>
+    <t>WB/Road One</t>
+  </si>
+  <si>
+    <t>NaN-00-,Na</t>
+  </si>
+  <si>
+    <t>-00-,NaN-0</t>
+  </si>
+  <si>
+    <t>-,NaN-00-</t>
+  </si>
+  <si>
+    <t>16-07-2025</t>
+  </si>
+  <si>
+    <t>17-07-2025</t>
+  </si>
+  <si>
+    <t>15-07-2025</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1020,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,13 +1094,13 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>207.11</v>
+        <v>247.77</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3">
-        <v>207.11</v>
+        <v>247.77</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1006,22 +1108,742 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3">
+        <v>62.62</v>
+      </c>
+      <c r="K3">
+        <v>62.62</v>
+      </c>
+      <c r="L3">
+        <v>56.31</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3">
+        <v>83.99</v>
+      </c>
+      <c r="O3">
+        <v>81.34</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>130.66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>130.66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4">
+        <v>66.95</v>
+      </c>
+      <c r="K4">
+        <v>66.95</v>
+      </c>
+      <c r="L4">
+        <v>65.0</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4">
+        <v>73.82</v>
+      </c>
+      <c r="O4">
+        <v>99.95</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>140.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>140.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5">
+        <v>62.73</v>
+      </c>
+      <c r="K5">
+        <v>62.73</v>
+      </c>
+      <c r="L5">
+        <v>58.33</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5">
+        <v>75.36</v>
+      </c>
+      <c r="O5">
+        <v>145.99</v>
+      </c>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>137.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>137.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6">
+        <v>45.85</v>
+      </c>
+      <c r="K6">
+        <v>45.85</v>
+      </c>
+      <c r="L6">
+        <v>33.52</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6">
+        <v>53.4</v>
+      </c>
+      <c r="O6">
+        <v>43.43</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>195.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>210.11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7">
+        <v>93.0</v>
+      </c>
+      <c r="K7">
+        <v>93.0</v>
+      </c>
+      <c r="L7">
+        <v>81.47</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7">
+        <v>87.23</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>136.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>136.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8">
+        <v>51.0</v>
+      </c>
+      <c r="K8">
+        <v>51.0</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8">
+        <v>95.29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>157.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>157.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9">
+        <v>65.53</v>
+      </c>
+      <c r="K9">
+        <v>65.53</v>
+      </c>
+      <c r="L9">
+        <v>64.93</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9">
+        <v>96.51</v>
+      </c>
+      <c r="O9">
+        <v>88.9</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>71.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>71.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10">
+        <v>51.0</v>
+      </c>
+      <c r="K10">
+        <v>51.0</v>
+      </c>
+      <c r="L10">
+        <v>4.93</v>
+      </c>
+      <c r="M10">
+        <v>35.34</v>
+      </c>
+      <c r="N10">
+        <v>15.0</v>
+      </c>
+      <c r="O10">
+        <v>49.77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>83.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>83.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11">
+        <v>38.0</v>
+      </c>
+      <c r="K11">
+        <v>38.0</v>
+      </c>
+      <c r="L11">
+        <v>21.564</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11">
+        <v>2.13</v>
+      </c>
+      <c r="O11">
+        <v>82.7</v>
+      </c>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>87.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>87.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12">
+        <v>53.0</v>
+      </c>
+      <c r="K12">
+        <v>53.0</v>
+      </c>
+      <c r="L12">
+        <v>49.75</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12">
+        <v>53.5</v>
+      </c>
+      <c r="O12">
+        <v>85.72</v>
+      </c>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>304.11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>304.11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13">
+        <v>119.1</v>
+      </c>
+      <c r="K13">
+        <v>119.1</v>
+      </c>
+      <c r="L13">
+        <v>116.9</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13">
+        <v>93.44</v>
+      </c>
+      <c r="O13">
+        <v>97.56</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>85.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <v>101.74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14">
+        <v>83.23</v>
+      </c>
+      <c r="K14">
+        <v>95.0</v>
+      </c>
+      <c r="L14">
+        <v>87.04</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14">
+        <v>99.93</v>
+      </c>
+      <c r="O14">
+        <v>97.49</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>207.11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>207.11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15">
         <v>126.5</v>
       </c>
-      <c r="K3">
+      <c r="K15">
         <v>126.5</v>
       </c>
-      <c r="L3"/>
-      <c r="M3">
-        <v>198.82</v>
-      </c>
-      <c r="N3">
-        <v>9.93</v>
-      </c>
-      <c r="O3">
+      <c r="L15">
+        <v>126.14</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15">
+        <v>93.65</v>
+      </c>
+      <c r="O15">
         <v>96</v>
       </c>
-      <c r="P3"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>317.51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>317.51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16">
+        <v>108.4</v>
+      </c>
+      <c r="K16">
+        <v>108.4</v>
+      </c>
+      <c r="L16">
+        <v>101.556</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16">
+        <v>86.56</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>137.68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>137.68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17">
+        <v>59.48</v>
+      </c>
+      <c r="K17">
+        <v>59.48</v>
+      </c>
+      <c r="L17">
+        <v>58.71</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17">
+        <v>99.87</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>105.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>105.0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18">
+        <v>25.7</v>
+      </c>
+      <c r="K18">
+        <v>25.7</v>
+      </c>
+      <c r="L18">
+        <v>23.74</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18">
+        <v>67.99</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>81.04</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19">
+        <v>81.04</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19">
+        <v>30.4</v>
+      </c>
+      <c r="K19">
+        <v>30.4</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19">
+        <v>0.0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>370.0</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20">
+        <v>370.0</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20">
+        <v>40.85</v>
+      </c>
+      <c r="K20">
+        <v>40.85</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20">
+        <v>0.0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1044,7 +1866,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1062,31 +1884,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1094,25 +1916,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1120,25 +1942,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1146,25 +1968,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1172,25 +1994,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1198,25 +2020,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1224,361 +2044,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
         <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>59</v>
-      </c>
-      <c r="D11">
-        <v>59</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>253</v>
-      </c>
-      <c r="D13">
-        <v>253</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13">
-        <v>253</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +2084,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,32 +2092,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3"/>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>6.2</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>6.2</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>6.2</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7"/>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>20.33</v>
+      </c>
+      <c r="D8">
+        <v>4.7</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8">
+        <v>4.7</v>
+      </c>
+      <c r="G8">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>20.33</v>
+      </c>
+      <c r="D9">
+        <v>4.0</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="F9">
+        <v>5.2</v>
+      </c>
+      <c r="G9">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>20.33</v>
+      </c>
+      <c r="D10">
+        <v>4.0</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10">
+        <v>4.0</v>
+      </c>
+      <c r="G10">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>20.33</v>
+      </c>
+      <c r="D11">
+        <v>4.0</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11">
+        <v>4.0</v>
+      </c>
+      <c r="G11">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>20.33</v>
+      </c>
+      <c r="D12">
+        <v>2.43</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12">
+        <v>2.43</v>
+      </c>
+      <c r="G12">
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +2323,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +2341,171 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>40.7</v>
+      </c>
+      <c r="D3">
+        <v>4.7</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3">
+        <v>4.7</v>
+      </c>
+      <c r="G3">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>50.74</v>
+      </c>
+      <c r="D4">
+        <v>4.0</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <v>5.2</v>
+      </c>
+      <c r="G4">
+        <v>45.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>34.2</v>
+      </c>
+      <c r="D5">
+        <v>4.0</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5">
+        <v>4.0</v>
+      </c>
+      <c r="G5">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>44.24</v>
+      </c>
+      <c r="D6">
+        <v>4.0</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6">
+        <v>4.0</v>
+      </c>
+      <c r="G6">
+        <v>40.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>44.24</v>
+      </c>
+      <c r="D7">
+        <v>2.43</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7">
+        <v>2.43</v>
+      </c>
+      <c r="G7">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>6.49</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +2529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,22 +2547,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1757,20 +2570,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C3">
-        <v>44.65</v>
+        <v>54.05</v>
       </c>
       <c r="D3">
-        <v>2.4</v>
-      </c>
-      <c r="E3"/>
+        <v>9.18</v>
+      </c>
+      <c r="E3">
+        <v>0.38</v>
+      </c>
       <c r="F3">
-        <v>2.4</v>
+        <v>9.56</v>
       </c>
       <c r="G3">
-        <v>5.38</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1778,209 +2593,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>0.97</v>
+        <v>16.95</v>
       </c>
       <c r="D4">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="E4"/>
       <c r="F4">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="G4">
-        <v>66.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5">
-        <v>0.97</v>
-      </c>
-      <c r="D5">
-        <v>0.33</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5">
-        <v>0.33</v>
-      </c>
-      <c r="G5">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6">
-        <v>44.65</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>44.65</v>
-      </c>
-      <c r="D7">
-        <v>0.36</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7">
-        <v>0.36</v>
-      </c>
-      <c r="G7">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8">
-        <v>44.65</v>
-      </c>
-      <c r="D8">
-        <v>2.46</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8">
-        <v>2.46</v>
-      </c>
-      <c r="G8">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>44.65</v>
-      </c>
-      <c r="D9">
-        <v>3.92</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9">
-        <v>3.92</v>
-      </c>
-      <c r="G9">
-        <v>8.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>44.65</v>
-      </c>
-      <c r="D10">
-        <v>0.54</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10">
-        <v>0.54</v>
-      </c>
-      <c r="G10">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11">
-        <v>44.65</v>
-      </c>
-      <c r="D11">
-        <v>4.79</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11">
-        <v>4.79</v>
-      </c>
-      <c r="G11">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>44.65</v>
-      </c>
-      <c r="D12">
-        <v>2.97</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12">
-        <v>2.97</v>
-      </c>
-      <c r="G12">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13">
-        <v>44.65</v>
-      </c>
-      <c r="D13">
-        <v>2.13</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13">
-        <v>2.13</v>
-      </c>
-      <c r="G13">
-        <v>4.77</v>
+        <v>6.44</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2630,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,22 +2648,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2045,20 +2671,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>210.11</v>
-      </c>
-      <c r="D3">
-        <v>121.76</v>
-      </c>
-      <c r="E3"/>
+        <v>241.0</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>35.34</v>
+      </c>
       <c r="F3">
-        <v>121.76</v>
+        <v>35.34</v>
       </c>
       <c r="G3">
-        <v>57.95</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2066,20 +2692,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>277.0</v>
-      </c>
-      <c r="D4">
-        <v>138.85</v>
-      </c>
+        <v>370.0</v>
+      </c>
+      <c r="D4"/>
       <c r="E4"/>
       <c r="F4">
-        <v>138.85</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
-        <v>50.13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2087,20 +2711,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>130.66</v>
-      </c>
-      <c r="D5">
-        <v>70.45</v>
-      </c>
+        <v>81.04</v>
+      </c>
+      <c r="D5"/>
       <c r="E5"/>
       <c r="F5">
-        <v>70.45</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
-        <v>53.92</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2108,20 +2730,18 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>247.77</v>
-      </c>
-      <c r="D6">
-        <v>108.56</v>
-      </c>
+        <v>317.51</v>
+      </c>
+      <c r="D6"/>
       <c r="E6"/>
       <c r="F6">
-        <v>108.56</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
-        <v>43.81</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2129,20 +2749,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>207.11</v>
-      </c>
-      <c r="D7">
-        <v>227.2</v>
-      </c>
+        <v>137.68</v>
+      </c>
+      <c r="D7"/>
       <c r="E7"/>
       <c r="F7">
-        <v>227.2</v>
+        <v>0.0</v>
       </c>
       <c r="G7">
-        <v>109.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2150,20 +2768,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C8">
-        <v>101.74</v>
-      </c>
-      <c r="D8">
-        <v>111.77</v>
-      </c>
+        <v>105.0</v>
+      </c>
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8">
-        <v>111.77</v>
+        <v>0.0</v>
       </c>
       <c r="G8">
-        <v>109.86</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2171,20 +2787,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>304.11</v>
-      </c>
-      <c r="D9">
-        <v>314.22</v>
-      </c>
+        <v>210.11</v>
+      </c>
+      <c r="D9"/>
       <c r="E9"/>
       <c r="F9">
-        <v>314.22</v>
+        <v>0.0</v>
       </c>
       <c r="G9">
-        <v>103.32</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2192,20 +2806,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>241.0</v>
-      </c>
-      <c r="D10">
-        <v>265.74</v>
-      </c>
+        <v>277.0</v>
+      </c>
+      <c r="D10"/>
       <c r="E10"/>
       <c r="F10">
-        <v>265.74</v>
+        <v>0.0</v>
       </c>
       <c r="G10">
-        <v>110.27</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2213,20 +2825,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>157.0</v>
-      </c>
-      <c r="D11">
-        <v>155.53</v>
-      </c>
+        <v>130.66</v>
+      </c>
+      <c r="D11"/>
       <c r="E11"/>
       <c r="F11">
-        <v>155.53</v>
+        <v>0.0</v>
       </c>
       <c r="G11">
-        <v>99.06</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2234,20 +2844,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>136.0</v>
-      </c>
-      <c r="D12">
-        <v>139.22</v>
-      </c>
+        <v>247.77</v>
+      </c>
+      <c r="D12"/>
       <c r="E12"/>
       <c r="F12">
-        <v>139.22</v>
+        <v>0.0</v>
       </c>
       <c r="G12">
-        <v>102.37</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2255,10 +2863,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>1.0</v>
+        <v>207.11</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -2274,10 +2882,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>317.51</v>
+        <v>101.74</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -2293,10 +2901,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>137.68</v>
+        <v>304.11</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -2312,10 +2920,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>105.0</v>
+        <v>157.0</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -2323,6 +2931,25 @@
         <v>0.0</v>
       </c>
       <c r="G16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>136.0</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17">
+        <v>0.0</v>
+      </c>
+      <c r="G17">
         <v>0.0</v>
       </c>
     </row>
@@ -2347,7 +2974,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2379,13 +3006,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>1649</v>
       </c>
       <c r="D3">
         <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>1700</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +3050,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,22 +3068,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2450,22 +3091,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2473,22 +3114,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2496,22 +3137,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2519,22 +3160,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2542,22 +3183,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2565,22 +3206,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2588,22 +3229,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2611,22 +3252,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2634,22 +3275,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2657,22 +3298,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2680,22 +3321,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2703,22 +3344,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2726,22 +3367,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2749,22 +3390,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2772,22 +3413,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2795,22 +3436,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2818,22 +3459,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2841,22 +3482,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2864,43 +3505,45 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21"/>
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2908,22 +3551,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2931,22 +3574,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2954,22 +3597,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2977,22 +3620,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3000,22 +3643,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3023,41 +3666,45 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28"/>
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3065,66 +3712,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" t="s">
-        <v>153</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31"/>
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3132,64 +3777,66 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" t="s">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34"/>
+        <v>180</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" t="s">
         <v>170</v>
-      </c>
-      <c r="G35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3197,45 +3844,154 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" t="s">
-        <v>175</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
